--- a/Doc/일정표.xlsx
+++ b/Doc/일정표.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="31">
   <si>
     <t>백민석</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,6 +102,38 @@
   </si>
   <si>
     <t>계절학기 기말 공부를 해야할듯 x2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계절학기 기말 과제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계절학기 기말 공부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수요일 배운 과제 복습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면을 꽉 채우는 그림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산출발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>키보드입력받기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력받은 키보드를 이용한 물체 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면을 꽉 채우는 그림 위에 물체 움직이기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -162,13 +194,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -467,13 +499,14 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.375" customWidth="1"/>
     <col min="5" max="5" width="52.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -498,7 +531,10 @@
       <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -509,7 +545,10 @@
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -520,7 +559,10 @@
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -531,7 +573,10 @@
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -542,7 +587,10 @@
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -553,6 +601,9 @@
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
       <c r="E7" t="s">
         <v>17</v>
       </c>
@@ -564,6 +615,9 @@
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
       <c r="E8" t="s">
         <v>22</v>
       </c>
@@ -575,6 +629,9 @@
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
       <c r="E9" t="s">
         <v>20</v>
       </c>
@@ -642,7 +699,7 @@
       <c r="B17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -653,7 +710,7 @@
       <c r="B18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1">
@@ -662,7 +719,7 @@
       <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="3"/>
+      <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1">
